--- a/Testing/CodeTestingResults (1).xlsx
+++ b/Testing/CodeTestingResults (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carissakelley/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585F8518-4C13-F14B-91EB-AABB3D018F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7F5BD1-2224-447A-BBA4-563FA33CA095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15900" windowHeight="13660" xr2:uid="{CAD017A8-3FF2-41FC-A736-6968CD04B18D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAD017A8-3FF2-41FC-A736-6968CD04B18D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
   <si>
     <t>Testing Action</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Icon on desktop opens program in terminal</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Code Testing Results Sheet (MAC)</t>
   </si>
   <si>
@@ -132,13 +129,19 @@
   </si>
   <si>
     <t>Code Testing Results Sheet (Windows)</t>
+  </si>
+  <si>
+    <t>Need to run in terminal rather than with icon for this to work.</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +187,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -217,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -225,7 +236,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,26 +576,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5B3C56-111D-47BF-99CF-C807DC20AF37}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
     <col min="3" max="3" width="49.33203125" customWidth="1"/>
-    <col min="4" max="5" width="11.5" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -595,8 +612,11 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -607,30 +627,30 @@
         <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>30</v>
+      <c r="C4" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -641,13 +661,13 @@
         <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -658,30 +678,30 @@
         <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -692,13 +712,13 @@
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -708,19 +728,19 @@
       <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>28</v>
+      <c r="D9" t="s">
+        <v>27</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -736,8 +756,11 @@
       <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -747,31 +770,34 @@
       <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
-        <v>25</v>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
+      <c r="C16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -781,14 +807,17 @@
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" t="s">
-        <v>25</v>
+      <c r="D17" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -798,31 +827,34 @@
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="s">
-        <v>25</v>
+      <c r="D18" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" t="s">
-        <v>25</v>
+      <c r="D19" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -832,14 +864,14 @@
       <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" t="s">
-        <v>25</v>
+      <c r="D20" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -849,11 +881,11 @@
       <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" t="s">
-        <v>25</v>
+      <c r="D21" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
